--- a/DragPrediction/NL2VP DragX/0.75T/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75T/n/8/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.235294118E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.52868722433628101</v>
+        <v>0.79960365905198771</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>8.8851124452726609</v>
+        <v>13.43813146089829</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.51321417325513641</v>
+        <v>0.77620171610412492</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.50261198428752896</v>
+        <v>0.76016662257013168</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.23780804622996696</v>
+        <v>0.35966858127923307</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.24431312242414463</v>
+        <v>0.36950706892910284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.50330476004942981</v>
+        <v>0.76121439904101929</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.25248192223477689</v>
+        <v>0.38186182599145635</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.27287943938283471</v>
+        <v>0.41271169070615288</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.44012887866554135</v>
+        <v>0.6656651525431313</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>5.6061665643347108E-2</v>
+        <v>8.4789476494813804E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.28492904127038432</v>
+        <v>0.43093589835841867</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5.1655343900404965E-2</v>
+        <v>7.8125212963497961E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.37384695732714052</v>
+        <v>0.56541823074978337</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>6.7596765956157032E-2</v>
+        <v>0.10223553532332781</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.2855304052623347</v>
+        <v>0.43184542071161969</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>6.1637652928735534E-2</v>
+        <v>9.3222780026635074E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.13252169786506612</v>
+        <v>0.20043010241020695</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.14768977896066943</v>
+        <v>0.22337079888734965</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.17147187569785538</v>
+        <v>0.25933961125056765</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.2043316055085124</v>
+        <v>0.3090377295000612</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-1.5257018083004134E-2</v>
+        <v>-2.3075207653651741E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-1.2111544959681819E-2</v>
+        <v>-1.831789235817486E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-1.9267774830371901E-2</v>
+        <v>-2.9141205890678999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-2.8686846219694216E-2</v>
+        <v>-4.3386914130043322E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-2.7730665384446282E-2</v>
+        <v>-4.1940755306100724E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-1.4712998804851239E-2</v>
+        <v>-2.2252415300475479E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-6.4174697086822316E-2</v>
+        <v>-9.7059887674790221E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-4.5924817471053717E-2</v>
+        <v>-6.9458179431609895E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>5.4602524050991735E-3</v>
+        <v>8.2582623553006801E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>9.3756842857524808E-2</v>
+        <v>0.14180088180522044</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>7.8263168588466936E-2</v>
+        <v>0.11836774768087818</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>8.4103181684739681E-2</v>
+        <v>0.12720037238928414</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>8.2455066350305778E-2</v>
+        <v>0.12470770944739548</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-2.8302152298619838E-2</v>
+        <v>-4.280509060046532E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>8.6658660114161165E-2</v>
+        <v>0.13106536062568255</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>1.6672642706962809E-2</v>
+        <v>2.5216244124851701E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>1.6008045162210743E-2</v>
+        <v>2.42110853010351E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1.2730077245095043E-2</v>
+        <v>1.9253380593736262E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>8.6058888804049598E-3</v>
+        <v>1.3015824709601161E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>1.3806509642975207E-3</v>
+        <v>2.0881411770671998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-2.0801674457962813E-2</v>
+        <v>-3.1461125303106539E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-5.5618426371396697E-2</v>
+        <v>-8.4119107082857567E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-5.5547270247396696E-2</v>
+        <v>-8.4011488259297398E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-5.72077023213843E-2</v>
+        <v>-8.6522779436485495E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-6.1109299105797522E-2</v>
+        <v>-9.2423680614642068E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-6.9798105453012405E-2</v>
+        <v>-0.10556491238310259</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-6.9348266760929755E-2</v>
+        <v>-0.10488456179467291</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-0.10734558797133471</v>
+        <v>-0.16235293945815127</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-0.10722965706866529</v>
+        <v>-0.16217760181104235</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-0.10180987511747108</v>
+        <v>-0.15398054827928856</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>-5.0563727935661155E-3</v>
+        <v>-7.6474217668908596E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-9.4939298860276869E-2</v>
+        <v>-0.14358926651161374</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-7.7165337080752058E-2</v>
+        <v>-0.11670735179805083</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-1.0446057141805786E-2</v>
+        <v>-1.5798954710396343E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>3.4141544657355373E-3</v>
+        <v>5.1636776485341597E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>6.4405766635041327E-3</v>
+        <v>9.7409364733713599E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>1.8937191253822316E-2</v>
+        <v>2.86412205964185E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>1.8035480137462812E-2</v>
+        <v>2.727744353720532E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>1.4593465990946282E-2</v>
+        <v>2.207163000630618E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>4.6589210825826446E-3</v>
+        <v>7.0463029431896999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>5.087171176529752E-2</v>
+        <v>7.6940022374924047E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>3.1621170569181824E-2</v>
+        <v>4.7824881190134845E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>6.7350717031053733E-2</v>
+        <v>0.10186340297028031</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>7.4751836027764473E-2</v>
+        <v>0.11305709473818439</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>7.1263544264330583E-2</v>
+        <v>0.10778128944255935</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E109" si="1">A67*$E$1</f>
-        <v>7.3642716897991733E-2</v>
+        <v>0.11137962709064629</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>7.3074750219061985E-2</v>
+        <v>0.11052061591393025</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>5.6357463415016532E-2</v>
+        <v>8.5236850612588691E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>7.3935631507152891E-2</v>
+        <v>0.11182264062018461</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>7.4481945880673556E-2</v>
+        <v>0.11264890414983246</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>7.7314836816024801E-2</v>
+        <v>0.11693346003340956</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>5.9359611508041324E-2</v>
+        <v>8.977739649623892E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>8.0798211684756205E-2</v>
+        <v>0.12220182885844422</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>8.1979532391223145E-2</v>
+        <v>0.12398849650601353</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>6.1752228009942151E-2</v>
+        <v>9.3396067085508128E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>8.2122734907533065E-2</v>
+        <v>0.12420508062372247</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>6.5978968749855371E-2</v>
+        <v>9.9788726499099298E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>0.10123397769974381</v>
+        <v>0.15310954239668675</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>5.6368514176698352E-2</v>
+        <v>8.5253564142005217E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>4.0527602596376035E-2</v>
+        <v>6.1295257076336464E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>6.5248442344574373E-2</v>
+        <v>9.8683854734077731E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>8.2552587484438028E-2</v>
+        <v>0.12485520356508469</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>8.1772834958938015E-2</v>
+        <v>0.12367588062357125</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>8.3059738219921492E-2</v>
+        <v>0.12562223474177442</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>0.13394245174130578</v>
+        <v>0.20257889652846792</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>8.1806575311123966E-2</v>
+        <v>0.12372691062358585</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>8.0089672456450406E-2</v>
+        <v>0.12113021121107921</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>9.3799894272768594E-2</v>
+        <v>0.14186599415818019</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>0.11398114156230992</v>
+        <v>0.17238876534337158</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>7.8129260800016531E-2</v>
+        <v>0.11816522121023208</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>0.11240877254261157</v>
+        <v>0.17001066357798625</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>0.10781547811938844</v>
+        <v>0.16306361651717785</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>0.10071952513059917</v>
+        <v>0.15233146769058212</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>9.381732392940495E-2</v>
+        <v>0.14189235533465833</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>0.11162305766971489</v>
+        <v>0.16882232298941144</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>8.869217995079752E-2</v>
+        <v>0.13414092180303186</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>0.11826813468132645</v>
+        <v>0.17887255240404762</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>8.7038739341702476E-2</v>
+        <v>0.13164020474349383</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>0.11671353018983058</v>
+        <v>0.17652131828572878</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>0.11757398676276447</v>
+        <v>0.17782270063904176</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>0.11254018104571488</v>
+        <v>0.17020941004863127</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>0.11196924136068596</v>
+        <v>0.16934590240132572</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>0.11038242385804958</v>
+        <v>0.16694594828299295</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>0.11312027660941736</v>
+        <v>0.17108676534299957</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>0.11523387158835124</v>
+        <v>0.17428343475567762</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>0.10076050197565291</v>
+        <v>0.15239344239648217</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>9.3853931108900834E-2</v>
+        <v>0.14194772121702709</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>8.8125822288904962E-2</v>
+        <v>0.13328434415572832</v>
       </c>
     </row>
   </sheetData>
@@ -2326,5 +2326,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>